--- a/Translator/excel/Missing_in_French.xlsx
+++ b/Translator/excel/Missing_in_French.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="244">
   <si>
     <t>English</t>
   </si>
@@ -22,6 +22,12 @@
     <t>French</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -206,6 +212,15 @@
   </si>
   <si>
     <t>&lt;Settings&gt;&lt;samplerRecordStemsPads&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Actions&gt;&lt;dualdeckmode_decks&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;SkinFPS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;LoadTagS&gt;</t>
   </si>
   <si>
     <t>add or remove a hash tag from user1, user2 or comment of the currently browsed file: "browsed_song_hashtag 'user 1' '#high_energy'"</t>
@@ -418,6 +433,348 @@
   </si>
   <si>
     <t>Select which pads will record which stems for stemsSwap banks</t>
+  </si>
+  <si>
+    <t>Fügt einen Hashtag zu user1, user2 oder einem Kommentar der aktuell durchsuchten Datei hinzu oder entfernt ihn: "browsed_song_hashtag 'user1' '#high_energy‘“</t>
+  </si>
+  <si>
+    <t>Abrufen der BPM des ausgewählten Decks mit effect_arm_deck</t>
+  </si>
+  <si>
+    <t>Bei Controllern mit einem Deck-Auswahlschalter für Effekte wähle mit effect_arm_active die Deck-Effekte aus, die aktiviert werden sollen.\nVerwende  'effect_arm_deck single', um jeweils nur ein Deck zu aktivieren.\nVerwende 'effect_arm_deck master', um den Master anstelle eines Decks auszuwählen. „Sampler“, „Mic“ und „Aux“ werden als Variable ebenfalls unterstützt.</t>
+  </si>
+  <si>
+    <t>Verschiebe den Effektparameter des mit effect_arm_select ausgewählten Effekts auf das mit effect_arm_deck ausgewählte Deck\nVerwende "effect_arm_slider 1 2", um den zweiten Slider des ersten Slots zu bewegen</t>
+  </si>
+  <si>
+    <t>Abrufen des Effektparameter Labels des mit effect_arm_select ausgewählten Effekts auf dem mit effect_arm_deck ausgewählten Deck.\nVerwenden Sie „effect_arm_slider_label 1 short“, um die Kurzbezeichnung zu erhalten</t>
+  </si>
+  <si>
+    <t>Abruf des Effektparameternamen des mit effect_arm_select ausgewählten Effekts auf dem mit effect_arm_deck ausgewählten Deck ab.\nVerwende „effect_arm_slider_name 1 short“, um die Kurzbezeichnung zu erhalten</t>
+  </si>
+  <si>
+    <t>Abrufen des Effektparametertextes des mit effect_arm_select ausgewählten Effekts auf dem mit effect_arm_deck ausgewählten Deck.</t>
+  </si>
+  <si>
+    <t>Umschalten, wenn ein Slot mit effect_arm_active aktiviert werden soll.</t>
+  </si>
+  <si>
+    <t>Pegelabruf eines einzelnen Spektrumbandes. „get_spectrum_band 1“\nSetze „Deck Master“ davor, um das Spektrum des Master-Decks „Deck Master get_spectrum_band 1“ zu erhalten.\nStandardmäßig gibt es 32 Bänder. Um eine kleinere Anzahl von Bändern zu verwenden, verwende 'get_spectrum_band 1 3', um das erste von 3 Bändern zu erhalten\nDer dritte Parameter kann verwendet werden, um ein Spektrum von Stems zu erhalten: 'get_spectrum_band 1 32 vocals'</t>
+  </si>
+  <si>
+    <t>Ruft den Signalpegel nach der Master-Lautstärke ab. Wenn kein Deck definiert ist, wird der Master-Pegel abgerufen.\nVerwende "get_vu_meter 'mic'" für den Mikrofonpegel oder "get_vu_meter 'sampler'" für den Sampler-Pegel\nVerwende "get_level 'vocal'" für das Vocal-VU-Meter. Andere Stemvariablen werden ebenfalls unterstützt.</t>
+  </si>
+  <si>
+    <t>fügt einen Hashtag von user1, user2 oder einem Kommentar des aktuell geladenen Songs hinzu oder entfernt ihn: „loaded_song_hashtag ‚user1' '#high_energy‘“</t>
+  </si>
+  <si>
+    <t>Stellt den Pitch(Tonhöhe) des Decks ein. Ohne Parameter kann dieser den Schiebereglern zugewiesen werden\nIn Kombination mit einer Zahl gibt es die Position auf dem Slider an (und berücksichtigt daher den Pitch-Bereich). („Pitch 0,25“ setzt den Pitch auf -10 %, wenn der Pitch-Bereich 20 % beträgt.)\nIn Verbindung mit einem Prozentwert ergibt sich eine absolute Position. „pitch 112 %“ setzt die Tonhöhe auf +12 %\nAuch relative Werte sind möglich. „Tonhöhe +0,1 %“, „Tonhöhe +0,1 bpm“\nBei Verwendung mit „bpm“ wird die Tonhöhe auf die BPM eingestellt. „pitch 130 bpm“ stellt die Tonhöhe auf 130 BPM ein</t>
+  </si>
+  <si>
+    <t>„sampler_assign 1 „path to vdjsample" fügt das Sample zum Sample-Slot 1 hinzu. (Zur Verwendung per Drag&amp;Drop auf der Pad-Seite)</t>
+  </si>
+  <si>
+    <t>Abruf der Farbe des Samples auf diesem Slot, falls vorhanden\nDie Samplenummer berücksichtigt die Sampler_Pad_Page und sollte daher in Kombination mit Sampler_Pad verwendet werden.</t>
+  </si>
+  <si>
+    <t>Öffnen Sie das Beispielmenü.\nkann auch mit "sampler_options "locked““ oder "sampler_options "stemswap"" verwendet werden, um die Einstellungen der Bank zu ändern.</t>
+  </si>
+  <si>
+    <t>'sampler_pad_volume 1' stellt die Lautstärke des Samples auf dem ersten Pad ein\n„sampler_pad_volume „siren““ legt die Lautstärke des Samples „siren.vdjsample“ fest.</t>
+  </si>
+  <si>
+    <t>Ändert die Anzahl eines Stems im Mix. Stem-Namen sind: "HiHat", "Vocal", "Instru", "Bass", "Kick", oder du kannst kombinierte Stems verwenden: "Melody" (Instru+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melodie/Vocal), "MeloRhythm" (Melodie/Rhythmus).\nUm auf der linken Seite einen kompletten Kill und auf der rechten Seite des Sliders entsprechend zu isolieren, kann  „FullVocal“, „FullMelo“ und „FullRhythm“ verwendet werden.\nUm einen Slider so zuzuordnen, dass er den Equalizer unabhängig vom EQ-Modus immer steuert, kann „stem FreqHi“, „stem FreqMid“ und „stem FreqLo“ verwendet werden.</t>
+  </si>
+  <si>
+    <t>Holt die Standardfarbe eines bestimmten Stems</t>
+  </si>
+  <si>
+    <t>Alle sichtbaren Felder</t>
+  </si>
+  <si>
+    <t>Dir wurde eine E-Mail mit einem geschützen Link gesendet</t>
+  </si>
+  <si>
+    <t>Eine E-Mail mit einem Verbindungslink wurde gesendet an</t>
+  </si>
+  <si>
+    <t>Einem Sample-Slot zuweisen</t>
+  </si>
+  <si>
+    <t>Versuch einer erneuten Verbindung</t>
+  </si>
+  <si>
+    <t>Autorisierte Computer</t>
+  </si>
+  <si>
+    <t>Überprüfe Deine E-Mails und klicke auf den Link, um fortzufahren</t>
+  </si>
+  <si>
+    <t>Effekt</t>
+  </si>
+  <si>
+    <t>Dateipfade</t>
+  </si>
+  <si>
+    <t>Umschalttaste gedrückt halten um Sample-Slot zu überschreiben,</t>
+  </si>
+  <si>
+    <t>Enthält</t>
+  </si>
+  <si>
+    <t>Gesperrte Bank</t>
+  </si>
+  <si>
+    <t>M4A (alternatives Audioformat)</t>
+  </si>
+  <si>
+    <t>MKV (alternatives Videoformat)</t>
+  </si>
+  <si>
+    <t>(nicht in der Playlist)</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Slots aufzeichnen..</t>
+  </si>
+  <si>
+    <t>Reguläre Bank(s)</t>
+  </si>
+  <si>
+    <t>schreibgeschützt Sample-Bank</t>
+  </si>
+  <si>
+    <t>Titel nur auf dem Laufwerk anzeigen, nicht in den Playlisten</t>
+  </si>
+  <si>
+    <t>Stille erkannt</t>
+  </si>
+  <si>
+    <t>Stille erkannt, Aufnahme pausiert</t>
+  </si>
+  <si>
+    <t>Titelname</t>
+  </si>
+  <si>
+    <t>Titel aus einem Musikabo können nicht exportiert werden</t>
+  </si>
+  <si>
+    <t>StemSwap-Bank</t>
+  </si>
+  <si>
+    <t>StemSwap Bank(s)</t>
+  </si>
+  <si>
+    <t>Ihr Account ist gesperrt. Bitte kontaktieren Sie den Support unter %s</t>
+  </si>
+  <si>
+    <t>Style der nativen Audioeffekte</t>
+  </si>
+  <si>
+    <t>Korrektur (in Millisekunden) auf die Zeitimpulse, zu der Beats an os2l gesendet werden, um Synchronisierungsprobleme zu beheben</t>
+  </si>
+  <si>
+    <t>Halte den Track synchron, indem Du nach dem Loslassen des Jog-Rads quantisierst.</t>
+  </si>
+  <si>
+    <t>Wenn während der Aufnahme eine längere Stille erkannt wird, wird die Aufnahme unterbrochen. Sobald erneut Ton erkannt wird, wird die Aufnahme fortgesetzt, die Stille wird jedoch von der Aufnahme ausgeschlossen.</t>
+  </si>
+  <si>
+    <t>Setzt den Gain zurück und verwendet AutoGain , wenn diese Option beim Laden eines neuen Songs aktiv ist. Diese Option hat keine Auswirkung, wenn ein Controller verwendet wird, der den Gain  Hardwaremässig umsetzt.</t>
+  </si>
+  <si>
+    <t>Setzt den Key auf den ürsprünglichen Wert zurück wenn ein neuer Track geladen wird</t>
+  </si>
+  <si>
+    <t>Ausblenden der alten VirtualDJ V8 Legacy-Banken , wenn sie sich noch im entsprechenden Ordner befinden</t>
+  </si>
+  <si>
+    <t>Definiert wohin die Ausgabe von Samples in no-StemSwap-Bänken (oder ausgelöst vom Sideview-Sampler) geleitet werden soll. 0 für Master/alle Decks, -2 für Trigger-Deck, -1 für Kopfhörer, 1 für Deck 1, 2 für Deck 2 usw.</t>
+  </si>
+  <si>
+    <t>Wählt aus, welche Pads welche Stems für StemsSwap-Bänke aufnimmt</t>
+  </si>
+  <si>
+    <t>dualdeckmode_decks</t>
+  </si>
+  <si>
+    <t>Anzahl der Frames pro Sekunde für den Aufbau des Skins. Ein höherer Wert macht die Animationen softer, ein kleinerer belastet die CPU nicht so stark.</t>
+  </si>
+  <si>
+    <t>aggiungi o rimuovi un hashtag da utente1, utente2 o dal commento del file attualmente visualizzato: "browsed_song_hashtag 'user 1' '#high_energy'"</t>
+  </si>
+  <si>
+    <t>Ottieni il bpm del deck selezionato usando effect_arm_deck</t>
+  </si>
+  <si>
+    <t>Per i controller con un interruttore di selezione del deck per gli effetti, seleziona il deck su cui verranno attivati gli effetti utilizzando effect_arm_active\nUsa 'effect_arm_deck single' per consentire l'armamento di un solo lettore alla volta\nUsa 'effect_arm_deck master' per selezionare il master invece di un deck. Sono supportati anche 'sampler', 'mic' e 'aux'</t>
+  </si>
+  <si>
+    <t>Sposta il parametro dell'effetto selezionato usando effect_arm_select sul deck selezionato usando effect_arm_deck\nUtilizzare "effect_arm_slider 1 2" per spostare il secondo cursore del primo slot</t>
+  </si>
+  <si>
+    <t>Ottieni l'etichetta del parametro dell'effetto selezionato utilizzando effect_arm_select sul deck selezionato utilizzando effect_arm_deck.\nUtilizzare 'effect_arm_slider_label 1 short' per ottenere l'etichetta corta</t>
+  </si>
+  <si>
+    <t>Ottieni il nome del parametro dell'effetto selezionato utilizzando effect_arm_select sul deck selezionato utilizzando effect_arm_deck.\nUtilizzare 'effect_arm_slider_name 1 short' per ottenere l'etichetta corta</t>
+  </si>
+  <si>
+    <t>Ottieni il testo del parametro dell'effetto selezionato utilizzando effect_arm_select sul deck selezionato utilizzando effect_arm_deck.</t>
+  </si>
+  <si>
+    <t>Attiva/disattiva se uno slot verrà attivato utilizzando effect_arm_active</t>
+  </si>
+  <si>
+    <t>Imposta/ottieni un bpm personalizzato per i plugin attivati su questo deck. Usa "effect_bpm_deck off" per reimpostare e usare i bpm del brano oppure "effect_bpm_deck 120" per impostarlo a 120 bpm.</t>
+  </si>
+  <si>
+    <t>Imposta un bpm personalizzato per i plugin attivati su questo deck. Usa "effect_bpm_deck off" per reimpostare e utilizzare il bpm del brano.</t>
+  </si>
+  <si>
+    <t>ottenere il livello di una singola banda dello spettro. 'get_spectrum_band 1'\nUsa 'deck master' davanti per ottenere lo spettro del lettore master 'deck master get_spectrum_band 1'\nDi default ci sono 32 bande, per usare un numero minore di bande, usa 'get_spectrum_band 1 3' per ottenere la prima delle 3 bande\nIl terzo parametro può essere utilizzato per ottenere uno spettro degli stems 'get_spectrum_band 1 32 vocals'</t>
+  </si>
+  <si>
+    <t>Ottieni il livello del segnale dopo il volume master. Se non è specificato alcun deck, verrà ottenuto il livello  del master\nUtilizzare "get_vu_meter 'mic'" per il livello del microfono o "get_vu_meter 'sampler'" per il livello del campionatore\nUsa "get_level 'vocal'" per il vu meter vocale, sono supportati anche altri nomi di stem</t>
+  </si>
+  <si>
+    <t>aggiungi o rimuovi un hashtag da utente1, utente2 o commento del brano attualmente caricato: "loaded_song_hashtag 'user 1' '#high_energy'"</t>
+  </si>
+  <si>
+    <t>Imposta il pitch del deck. Senza parametri può essere assegnato ai cursori\nUtilizzato con un numero, fornisce la posizione sul cursore (e quindi tiene conto di pitch_range). ('pitch 0.25' imposta il pitch a -10% se il pitch range è 20%)\nUtilizzato con una percentuale fornisce una posizione assoluta. 'pitch 112%' imposta il pitch a +12%\nSono possibili anche valori relativi. 'pitch +0,1%', 'pitch +0,1 bpm'\nSe utilizzato con 'bpm', il tono viene impostato in modo da corrispondere al bpm. 'pitch 130 bpm' imposta il tono in modo da corrispondere a 130 bpm</t>
+  </si>
+  <si>
+    <t>'sampler_assign 1 "percorso vdjsample"' aggiunge il campione allo slot campione 1. (Per l'uso nel trascinamento della selezione nella pagina pad)</t>
+  </si>
+  <si>
+    <t>Per Ottenere il colore del campione dello slot (se ne ha uno)\nIl numero di campione tiene conto di sampler_pad_page, quindi dovrebbe essere utilizzato in combinazione con sampler_pad</t>
+  </si>
+  <si>
+    <t>visualizza il menu del campionatore\npuò essere utilizzato anche con 'sampler_options "locked"' o 'sampler_options "stemswap"' per modificare le impostazioni del banco</t>
+  </si>
+  <si>
+    <t>'sampler_pad_volume 1' imposta il volume del campione sul primo pad\n'sampler_pad_volume "siren"' imposta il volume del campione 'siren.vdjsample'.</t>
+  </si>
+  <si>
+    <t>Modifica la quantità di uno stem nel mix. I nomi degli stem sono: "HiHat", "Vocal", "Instrument", "Bass", "Kick", oppure puoi usare stem aggregati: "Melody" (Instrument+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melody/Vocal), "MeloRhythm" (Melody/Rhythm).\nPer ottenere l'eliminazione sul lato sinistro e isolare sul lato destro dello slider, puoi usare "FullVocal", "FullMelo" e "FullRhythm"\nPer mappare un cursore in modo che controlli sempre l'equalizzatore, indipendentemente dalla modalità EQ, puoi usare "stem FreqHi", "stem FreqMid" e "stem FreqLo"</t>
+  </si>
+  <si>
+    <t>ottenere il colore predefinito di uno stem specifico</t>
+  </si>
+  <si>
+    <t>Tutti i campi visibili</t>
+  </si>
+  <si>
+    <t>Ti è stata inviata un'e-mail con un collegamento sicuro</t>
+  </si>
+  <si>
+    <t>È stata inviata un'e-mail con un collegamento di connessione a</t>
+  </si>
+  <si>
+    <t>Assegna allo slot del campione</t>
+  </si>
+  <si>
+    <t>Tentativo di riconnessione</t>
+  </si>
+  <si>
+    <t>Computer autorizzati</t>
+  </si>
+  <si>
+    <t>Controlla la tua posta elettronica e clicca sul link per continuare</t>
+  </si>
+  <si>
+    <t>Effetto</t>
+  </si>
+  <si>
+    <t>Percorsi dei file</t>
+  </si>
+  <si>
+    <t>Tieni premuto Maiusc per sovrascrivere lo slot del campione</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Banco bloccato</t>
+  </si>
+  <si>
+    <t>M4A (formato audio alternativo)</t>
+  </si>
+  <si>
+    <t>MKV (formato video alternativo)</t>
+  </si>
+  <si>
+    <t>(non nella playlist)</t>
+  </si>
+  <si>
+    <t>Parametri</t>
+  </si>
+  <si>
+    <t>Slot di registrazione.</t>
+  </si>
+  <si>
+    <t>Banchi normali</t>
+  </si>
+  <si>
+    <t>Il banco campioni è di sola lettura</t>
+  </si>
+  <si>
+    <t>Mostra i brani sull'unità, ma non in nessuna playlist</t>
+  </si>
+  <si>
+    <t>Silenzio rilevato</t>
+  </si>
+  <si>
+    <t>Silenzio rilevato, registrazione in pausa</t>
+  </si>
+  <si>
+    <t>Nomi delle canzoni</t>
+  </si>
+  <si>
+    <t>I brani di un abbonamento musicale non possono essere esportati</t>
+  </si>
+  <si>
+    <t>Banco StemSwap</t>
+  </si>
+  <si>
+    <t>Banchi StemSwap</t>
+  </si>
+  <si>
+    <t>Stile</t>
+  </si>
+  <si>
+    <t>Il tuo account è bloccato. Contatta l'assistenza al %s</t>
+  </si>
+  <si>
+    <t>Stile degli effetti audio nativi</t>
+  </si>
+  <si>
+    <t>Applica una correzione (in millisecondi) al tempo in cui i battiti vengono inviati a os2l, per correggere i problemi di sincronizzazione</t>
+  </si>
+  <si>
+    <t>Mantieni sincronizzata la canzone quantizzandola dopo aver rilasciato la  jog wheel</t>
+  </si>
+  <si>
+    <t>Se viene rilevato un lungo silenzio durante la registrazione, la registrazione verrà messa in pausa. Dopo il rilevamento di un nuovo suono, la registrazione riprenderà, ma il silenzio verrà escluso dalla registrazione.</t>
+  </si>
+  <si>
+    <t>Reimposta il guadagno e applica autoGain quando abilitato quando carichi una nuova canzone. Questa opzione non ha effetto quando viene utilizzato un controller con guadagno integrato nell'hardware</t>
+  </si>
+  <si>
+    <t>Ripristina la chiave musicale originale quando viene caricata una nuova canzone.</t>
+  </si>
+  <si>
+    <t>Nasconde le vecchie banche legacy da VirtualDJ v8 se sono ancora presenti nella cartella</t>
+  </si>
+  <si>
+    <t>Dove instradare l'output dai campioni nei banchi non-stemSwap (o attivati dal campionatore nella lista laterale). 0 per master/tutti i deck, -2 per il deck trigger, -1 per le cuffie, 1 per il deck 1, 2 per il deck 2, ecc...</t>
+  </si>
+  <si>
+    <t>Seleziona quali pad registreranno gli stems per i banchi stemsSwap</t>
+  </si>
+  <si>
+    <t>Caricare i Tags</t>
   </si>
 </sst>
 </file>
@@ -775,15 +1132,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -791,493 +1148,874 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>124</v>
+      <c r="E65" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Translator/excel/Missing_in_French.xlsx
+++ b/Translator/excel/Missing_in_French.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>English</t>
   </si>
   <si>
     <t>French</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Italian</t>
   </si>
   <si>
     <t>Tag</t>
@@ -433,348 +427,6 @@
   </si>
   <si>
     <t>Select which pads will record which stems for stemsSwap banks</t>
-  </si>
-  <si>
-    <t>Fügt einen Hashtag zu user1, user2 oder einem Kommentar der aktuell durchsuchten Datei hinzu oder entfernt ihn: "browsed_song_hashtag 'user1' '#high_energy‘“</t>
-  </si>
-  <si>
-    <t>Abrufen der BPM des ausgewählten Decks mit effect_arm_deck</t>
-  </si>
-  <si>
-    <t>Bei Controllern mit einem Deck-Auswahlschalter für Effekte wähle mit effect_arm_active die Deck-Effekte aus, die aktiviert werden sollen.\nVerwende  'effect_arm_deck single', um jeweils nur ein Deck zu aktivieren.\nVerwende 'effect_arm_deck master', um den Master anstelle eines Decks auszuwählen. „Sampler“, „Mic“ und „Aux“ werden als Variable ebenfalls unterstützt.</t>
-  </si>
-  <si>
-    <t>Verschiebe den Effektparameter des mit effect_arm_select ausgewählten Effekts auf das mit effect_arm_deck ausgewählte Deck\nVerwende "effect_arm_slider 1 2", um den zweiten Slider des ersten Slots zu bewegen</t>
-  </si>
-  <si>
-    <t>Abrufen des Effektparameter Labels des mit effect_arm_select ausgewählten Effekts auf dem mit effect_arm_deck ausgewählten Deck.\nVerwenden Sie „effect_arm_slider_label 1 short“, um die Kurzbezeichnung zu erhalten</t>
-  </si>
-  <si>
-    <t>Abruf des Effektparameternamen des mit effect_arm_select ausgewählten Effekts auf dem mit effect_arm_deck ausgewählten Deck ab.\nVerwende „effect_arm_slider_name 1 short“, um die Kurzbezeichnung zu erhalten</t>
-  </si>
-  <si>
-    <t>Abrufen des Effektparametertextes des mit effect_arm_select ausgewählten Effekts auf dem mit effect_arm_deck ausgewählten Deck.</t>
-  </si>
-  <si>
-    <t>Umschalten, wenn ein Slot mit effect_arm_active aktiviert werden soll.</t>
-  </si>
-  <si>
-    <t>Pegelabruf eines einzelnen Spektrumbandes. „get_spectrum_band 1“\nSetze „Deck Master“ davor, um das Spektrum des Master-Decks „Deck Master get_spectrum_band 1“ zu erhalten.\nStandardmäßig gibt es 32 Bänder. Um eine kleinere Anzahl von Bändern zu verwenden, verwende 'get_spectrum_band 1 3', um das erste von 3 Bändern zu erhalten\nDer dritte Parameter kann verwendet werden, um ein Spektrum von Stems zu erhalten: 'get_spectrum_band 1 32 vocals'</t>
-  </si>
-  <si>
-    <t>Ruft den Signalpegel nach der Master-Lautstärke ab. Wenn kein Deck definiert ist, wird der Master-Pegel abgerufen.\nVerwende "get_vu_meter 'mic'" für den Mikrofonpegel oder "get_vu_meter 'sampler'" für den Sampler-Pegel\nVerwende "get_level 'vocal'" für das Vocal-VU-Meter. Andere Stemvariablen werden ebenfalls unterstützt.</t>
-  </si>
-  <si>
-    <t>fügt einen Hashtag von user1, user2 oder einem Kommentar des aktuell geladenen Songs hinzu oder entfernt ihn: „loaded_song_hashtag ‚user1' '#high_energy‘“</t>
-  </si>
-  <si>
-    <t>Stellt den Pitch(Tonhöhe) des Decks ein. Ohne Parameter kann dieser den Schiebereglern zugewiesen werden\nIn Kombination mit einer Zahl gibt es die Position auf dem Slider an (und berücksichtigt daher den Pitch-Bereich). („Pitch 0,25“ setzt den Pitch auf -10 %, wenn der Pitch-Bereich 20 % beträgt.)\nIn Verbindung mit einem Prozentwert ergibt sich eine absolute Position. „pitch 112 %“ setzt die Tonhöhe auf +12 %\nAuch relative Werte sind möglich. „Tonhöhe +0,1 %“, „Tonhöhe +0,1 bpm“\nBei Verwendung mit „bpm“ wird die Tonhöhe auf die BPM eingestellt. „pitch 130 bpm“ stellt die Tonhöhe auf 130 BPM ein</t>
-  </si>
-  <si>
-    <t>„sampler_assign 1 „path to vdjsample" fügt das Sample zum Sample-Slot 1 hinzu. (Zur Verwendung per Drag&amp;Drop auf der Pad-Seite)</t>
-  </si>
-  <si>
-    <t>Abruf der Farbe des Samples auf diesem Slot, falls vorhanden\nDie Samplenummer berücksichtigt die Sampler_Pad_Page und sollte daher in Kombination mit Sampler_Pad verwendet werden.</t>
-  </si>
-  <si>
-    <t>Öffnen Sie das Beispielmenü.\nkann auch mit "sampler_options "locked““ oder "sampler_options "stemswap"" verwendet werden, um die Einstellungen der Bank zu ändern.</t>
-  </si>
-  <si>
-    <t>'sampler_pad_volume 1' stellt die Lautstärke des Samples auf dem ersten Pad ein\n„sampler_pad_volume „siren““ legt die Lautstärke des Samples „siren.vdjsample“ fest.</t>
-  </si>
-  <si>
-    <t>Ändert die Anzahl eines Stems im Mix. Stem-Namen sind: "HiHat", "Vocal", "Instru", "Bass", "Kick", oder du kannst kombinierte Stems verwenden: "Melody" (Instru+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melodie/Vocal), "MeloRhythm" (Melodie/Rhythmus).\nUm auf der linken Seite einen kompletten Kill und auf der rechten Seite des Sliders entsprechend zu isolieren, kann  „FullVocal“, „FullMelo“ und „FullRhythm“ verwendet werden.\nUm einen Slider so zuzuordnen, dass er den Equalizer unabhängig vom EQ-Modus immer steuert, kann „stem FreqHi“, „stem FreqMid“ und „stem FreqLo“ verwendet werden.</t>
-  </si>
-  <si>
-    <t>Holt die Standardfarbe eines bestimmten Stems</t>
-  </si>
-  <si>
-    <t>Alle sichtbaren Felder</t>
-  </si>
-  <si>
-    <t>Dir wurde eine E-Mail mit einem geschützen Link gesendet</t>
-  </si>
-  <si>
-    <t>Eine E-Mail mit einem Verbindungslink wurde gesendet an</t>
-  </si>
-  <si>
-    <t>Einem Sample-Slot zuweisen</t>
-  </si>
-  <si>
-    <t>Versuch einer erneuten Verbindung</t>
-  </si>
-  <si>
-    <t>Autorisierte Computer</t>
-  </si>
-  <si>
-    <t>Überprüfe Deine E-Mails und klicke auf den Link, um fortzufahren</t>
-  </si>
-  <si>
-    <t>Effekt</t>
-  </si>
-  <si>
-    <t>Dateipfade</t>
-  </si>
-  <si>
-    <t>Umschalttaste gedrückt halten um Sample-Slot zu überschreiben,</t>
-  </si>
-  <si>
-    <t>Enthält</t>
-  </si>
-  <si>
-    <t>Gesperrte Bank</t>
-  </si>
-  <si>
-    <t>M4A (alternatives Audioformat)</t>
-  </si>
-  <si>
-    <t>MKV (alternatives Videoformat)</t>
-  </si>
-  <si>
-    <t>(nicht in der Playlist)</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Slots aufzeichnen..</t>
-  </si>
-  <si>
-    <t>Reguläre Bank(s)</t>
-  </si>
-  <si>
-    <t>schreibgeschützt Sample-Bank</t>
-  </si>
-  <si>
-    <t>Titel nur auf dem Laufwerk anzeigen, nicht in den Playlisten</t>
-  </si>
-  <si>
-    <t>Stille erkannt</t>
-  </si>
-  <si>
-    <t>Stille erkannt, Aufnahme pausiert</t>
-  </si>
-  <si>
-    <t>Titelname</t>
-  </si>
-  <si>
-    <t>Titel aus einem Musikabo können nicht exportiert werden</t>
-  </si>
-  <si>
-    <t>StemSwap-Bank</t>
-  </si>
-  <si>
-    <t>StemSwap Bank(s)</t>
-  </si>
-  <si>
-    <t>Ihr Account ist gesperrt. Bitte kontaktieren Sie den Support unter %s</t>
-  </si>
-  <si>
-    <t>Style der nativen Audioeffekte</t>
-  </si>
-  <si>
-    <t>Korrektur (in Millisekunden) auf die Zeitimpulse, zu der Beats an os2l gesendet werden, um Synchronisierungsprobleme zu beheben</t>
-  </si>
-  <si>
-    <t>Halte den Track synchron, indem Du nach dem Loslassen des Jog-Rads quantisierst.</t>
-  </si>
-  <si>
-    <t>Wenn während der Aufnahme eine längere Stille erkannt wird, wird die Aufnahme unterbrochen. Sobald erneut Ton erkannt wird, wird die Aufnahme fortgesetzt, die Stille wird jedoch von der Aufnahme ausgeschlossen.</t>
-  </si>
-  <si>
-    <t>Setzt den Gain zurück und verwendet AutoGain , wenn diese Option beim Laden eines neuen Songs aktiv ist. Diese Option hat keine Auswirkung, wenn ein Controller verwendet wird, der den Gain  Hardwaremässig umsetzt.</t>
-  </si>
-  <si>
-    <t>Setzt den Key auf den ürsprünglichen Wert zurück wenn ein neuer Track geladen wird</t>
-  </si>
-  <si>
-    <t>Ausblenden der alten VirtualDJ V8 Legacy-Banken , wenn sie sich noch im entsprechenden Ordner befinden</t>
-  </si>
-  <si>
-    <t>Definiert wohin die Ausgabe von Samples in no-StemSwap-Bänken (oder ausgelöst vom Sideview-Sampler) geleitet werden soll. 0 für Master/alle Decks, -2 für Trigger-Deck, -1 für Kopfhörer, 1 für Deck 1, 2 für Deck 2 usw.</t>
-  </si>
-  <si>
-    <t>Wählt aus, welche Pads welche Stems für StemsSwap-Bänke aufnimmt</t>
-  </si>
-  <si>
-    <t>dualdeckmode_decks</t>
-  </si>
-  <si>
-    <t>Anzahl der Frames pro Sekunde für den Aufbau des Skins. Ein höherer Wert macht die Animationen softer, ein kleinerer belastet die CPU nicht so stark.</t>
-  </si>
-  <si>
-    <t>aggiungi o rimuovi un hashtag da utente1, utente2 o dal commento del file attualmente visualizzato: "browsed_song_hashtag 'user 1' '#high_energy'"</t>
-  </si>
-  <si>
-    <t>Ottieni il bpm del deck selezionato usando effect_arm_deck</t>
-  </si>
-  <si>
-    <t>Per i controller con un interruttore di selezione del deck per gli effetti, seleziona il deck su cui verranno attivati gli effetti utilizzando effect_arm_active\nUsa 'effect_arm_deck single' per consentire l'armamento di un solo lettore alla volta\nUsa 'effect_arm_deck master' per selezionare il master invece di un deck. Sono supportati anche 'sampler', 'mic' e 'aux'</t>
-  </si>
-  <si>
-    <t>Sposta il parametro dell'effetto selezionato usando effect_arm_select sul deck selezionato usando effect_arm_deck\nUtilizzare "effect_arm_slider 1 2" per spostare il secondo cursore del primo slot</t>
-  </si>
-  <si>
-    <t>Ottieni l'etichetta del parametro dell'effetto selezionato utilizzando effect_arm_select sul deck selezionato utilizzando effect_arm_deck.\nUtilizzare 'effect_arm_slider_label 1 short' per ottenere l'etichetta corta</t>
-  </si>
-  <si>
-    <t>Ottieni il nome del parametro dell'effetto selezionato utilizzando effect_arm_select sul deck selezionato utilizzando effect_arm_deck.\nUtilizzare 'effect_arm_slider_name 1 short' per ottenere l'etichetta corta</t>
-  </si>
-  <si>
-    <t>Ottieni il testo del parametro dell'effetto selezionato utilizzando effect_arm_select sul deck selezionato utilizzando effect_arm_deck.</t>
-  </si>
-  <si>
-    <t>Attiva/disattiva se uno slot verrà attivato utilizzando effect_arm_active</t>
-  </si>
-  <si>
-    <t>Imposta/ottieni un bpm personalizzato per i plugin attivati su questo deck. Usa "effect_bpm_deck off" per reimpostare e usare i bpm del brano oppure "effect_bpm_deck 120" per impostarlo a 120 bpm.</t>
-  </si>
-  <si>
-    <t>Imposta un bpm personalizzato per i plugin attivati su questo deck. Usa "effect_bpm_deck off" per reimpostare e utilizzare il bpm del brano.</t>
-  </si>
-  <si>
-    <t>ottenere il livello di una singola banda dello spettro. 'get_spectrum_band 1'\nUsa 'deck master' davanti per ottenere lo spettro del lettore master 'deck master get_spectrum_band 1'\nDi default ci sono 32 bande, per usare un numero minore di bande, usa 'get_spectrum_band 1 3' per ottenere la prima delle 3 bande\nIl terzo parametro può essere utilizzato per ottenere uno spettro degli stems 'get_spectrum_band 1 32 vocals'</t>
-  </si>
-  <si>
-    <t>Ottieni il livello del segnale dopo il volume master. Se non è specificato alcun deck, verrà ottenuto il livello  del master\nUtilizzare "get_vu_meter 'mic'" per il livello del microfono o "get_vu_meter 'sampler'" per il livello del campionatore\nUsa "get_level 'vocal'" per il vu meter vocale, sono supportati anche altri nomi di stem</t>
-  </si>
-  <si>
-    <t>aggiungi o rimuovi un hashtag da utente1, utente2 o commento del brano attualmente caricato: "loaded_song_hashtag 'user 1' '#high_energy'"</t>
-  </si>
-  <si>
-    <t>Imposta il pitch del deck. Senza parametri può essere assegnato ai cursori\nUtilizzato con un numero, fornisce la posizione sul cursore (e quindi tiene conto di pitch_range). ('pitch 0.25' imposta il pitch a -10% se il pitch range è 20%)\nUtilizzato con una percentuale fornisce una posizione assoluta. 'pitch 112%' imposta il pitch a +12%\nSono possibili anche valori relativi. 'pitch +0,1%', 'pitch +0,1 bpm'\nSe utilizzato con 'bpm', il tono viene impostato in modo da corrispondere al bpm. 'pitch 130 bpm' imposta il tono in modo da corrispondere a 130 bpm</t>
-  </si>
-  <si>
-    <t>'sampler_assign 1 "percorso vdjsample"' aggiunge il campione allo slot campione 1. (Per l'uso nel trascinamento della selezione nella pagina pad)</t>
-  </si>
-  <si>
-    <t>Per Ottenere il colore del campione dello slot (se ne ha uno)\nIl numero di campione tiene conto di sampler_pad_page, quindi dovrebbe essere utilizzato in combinazione con sampler_pad</t>
-  </si>
-  <si>
-    <t>visualizza il menu del campionatore\npuò essere utilizzato anche con 'sampler_options "locked"' o 'sampler_options "stemswap"' per modificare le impostazioni del banco</t>
-  </si>
-  <si>
-    <t>'sampler_pad_volume 1' imposta il volume del campione sul primo pad\n'sampler_pad_volume "siren"' imposta il volume del campione 'siren.vdjsample'.</t>
-  </si>
-  <si>
-    <t>Modifica la quantità di uno stem nel mix. I nomi degli stem sono: "HiHat", "Vocal", "Instrument", "Bass", "Kick", oppure puoi usare stem aggregati: "Melody" (Instrument+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melody/Vocal), "MeloRhythm" (Melody/Rhythm).\nPer ottenere l'eliminazione sul lato sinistro e isolare sul lato destro dello slider, puoi usare "FullVocal", "FullMelo" e "FullRhythm"\nPer mappare un cursore in modo che controlli sempre l'equalizzatore, indipendentemente dalla modalità EQ, puoi usare "stem FreqHi", "stem FreqMid" e "stem FreqLo"</t>
-  </si>
-  <si>
-    <t>ottenere il colore predefinito di uno stem specifico</t>
-  </si>
-  <si>
-    <t>Tutti i campi visibili</t>
-  </si>
-  <si>
-    <t>Ti è stata inviata un'e-mail con un collegamento sicuro</t>
-  </si>
-  <si>
-    <t>È stata inviata un'e-mail con un collegamento di connessione a</t>
-  </si>
-  <si>
-    <t>Assegna allo slot del campione</t>
-  </si>
-  <si>
-    <t>Tentativo di riconnessione</t>
-  </si>
-  <si>
-    <t>Computer autorizzati</t>
-  </si>
-  <si>
-    <t>Controlla la tua posta elettronica e clicca sul link per continuare</t>
-  </si>
-  <si>
-    <t>Effetto</t>
-  </si>
-  <si>
-    <t>Percorsi dei file</t>
-  </si>
-  <si>
-    <t>Tieni premuto Maiusc per sovrascrivere lo slot del campione</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>Banco bloccato</t>
-  </si>
-  <si>
-    <t>M4A (formato audio alternativo)</t>
-  </si>
-  <si>
-    <t>MKV (formato video alternativo)</t>
-  </si>
-  <si>
-    <t>(non nella playlist)</t>
-  </si>
-  <si>
-    <t>Parametri</t>
-  </si>
-  <si>
-    <t>Slot di registrazione.</t>
-  </si>
-  <si>
-    <t>Banchi normali</t>
-  </si>
-  <si>
-    <t>Il banco campioni è di sola lettura</t>
-  </si>
-  <si>
-    <t>Mostra i brani sull'unità, ma non in nessuna playlist</t>
-  </si>
-  <si>
-    <t>Silenzio rilevato</t>
-  </si>
-  <si>
-    <t>Silenzio rilevato, registrazione in pausa</t>
-  </si>
-  <si>
-    <t>Nomi delle canzoni</t>
-  </si>
-  <si>
-    <t>I brani di un abbonamento musicale non possono essere esportati</t>
-  </si>
-  <si>
-    <t>Banco StemSwap</t>
-  </si>
-  <si>
-    <t>Banchi StemSwap</t>
-  </si>
-  <si>
-    <t>Stile</t>
-  </si>
-  <si>
-    <t>Il tuo account è bloccato. Contatta l'assistenza al %s</t>
-  </si>
-  <si>
-    <t>Stile degli effetti audio nativi</t>
-  </si>
-  <si>
-    <t>Applica una correzione (in millisecondi) al tempo in cui i battiti vengono inviati a os2l, per correggere i problemi di sincronizzazione</t>
-  </si>
-  <si>
-    <t>Mantieni sincronizzata la canzone quantizzandola dopo aver rilasciato la  jog wheel</t>
-  </si>
-  <si>
-    <t>Se viene rilevato un lungo silenzio durante la registrazione, la registrazione verrà messa in pausa. Dopo il rilevamento di un nuovo suono, la registrazione riprenderà, ma il silenzio verrà escluso dalla registrazione.</t>
-  </si>
-  <si>
-    <t>Reimposta il guadagno e applica autoGain quando abilitato quando carichi una nuova canzone. Questa opzione non ha effetto quando viene utilizzato un controller con guadagno integrato nell'hardware</t>
-  </si>
-  <si>
-    <t>Ripristina la chiave musicale originale quando viene caricata una nuova canzone.</t>
-  </si>
-  <si>
-    <t>Nasconde le vecchie banche legacy da VirtualDJ v8 se sono ancora presenti nella cartella</t>
-  </si>
-  <si>
-    <t>Dove instradare l'output dai campioni nei banchi non-stemSwap (o attivati dal campionatore nella lista laterale). 0 per master/tutti i deck, -2 per il deck trigger, -1 per le cuffie, 1 per il deck 1, 2 per il deck 2, ecc...</t>
-  </si>
-  <si>
-    <t>Seleziona quali pad registreranno gli stems per i banchi stemsSwap</t>
-  </si>
-  <si>
-    <t>Caricare i Tags</t>
   </si>
 </sst>
 </file>
@@ -1132,15 +784,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1148,874 +800,508 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="E10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="D14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="D15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>92</v>
       </c>
-      <c r="D25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="D26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>95</v>
       </c>
-      <c r="D28" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="D29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="D30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-      <c r="D31" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="D32" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>101</v>
       </c>
-      <c r="D34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>102</v>
       </c>
-      <c r="D35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="D36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="D37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="D38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>106</v>
       </c>
-      <c r="D39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>108</v>
       </c>
-      <c r="D41" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>109</v>
       </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>110</v>
       </c>
-      <c r="D43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>112</v>
       </c>
-      <c r="D45" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>113</v>
       </c>
-      <c r="D46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>114</v>
       </c>
-      <c r="D47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>115</v>
       </c>
-      <c r="D48" t="s">
-        <v>170</v>
-      </c>
-      <c r="E48" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>116</v>
       </c>
-      <c r="D49" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>117</v>
       </c>
-      <c r="D50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>118</v>
       </c>
-      <c r="D51" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>119</v>
       </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>120</v>
       </c>
-      <c r="D53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>121</v>
       </c>
-      <c r="D54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>122</v>
       </c>
-      <c r="D55" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>123</v>
       </c>
-      <c r="D56" t="s">
-        <v>177</v>
-      </c>
-      <c r="E56" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>124</v>
       </c>
-      <c r="D57" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="D58" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>126</v>
       </c>
-      <c r="D59" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>127</v>
       </c>
-      <c r="D60" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D63" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Translator/excel/Missing_in_French.xlsx
+++ b/Translator/excel/Missing_in_French.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>English</t>
   </si>
@@ -217,6 +217,90 @@
     <t>&lt;ContextMenu&gt;&lt;LoadTagS&gt;</t>
   </si>
   <si>
+    <t>&lt;Config&gt;&lt;Connectdevice&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;deck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;Reconnectdevice&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Config&gt;&lt;Rescandevices&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deckI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;delete&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deleteFromTag&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;deleteLyrics&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;detachImage&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;ResetTodefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputAlldecks&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputdeckI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ContextMenu&gt;&lt;SamplerOutputTriggerdeck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deletePOI&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deleteSample&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Messages&gt;&lt;deleteSampleFile&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;audioAutodetect&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;automixDualdeck&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;disableBuiltIndefinitions&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;filterdefaultResonance&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;historydelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;loopdefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;loopRolldefault&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;samplerdefaultLoopMode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;tooltipdelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;videodelay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Settings&gt;&lt;autoMixBeatMatchOnfade&gt;</t>
+  </si>
+  <si>
     <t>add or remove a hash tag from user1, user2 or comment of the currently browsed file: "browsed_song_hashtag 'user 1' '#high_energy'"</t>
   </si>
   <si>
@@ -224,20 +308,20 @@
   </si>
   <si>
     <t>For controllers with a deck selection switch for effects, select the deck effects will be activated on using effect_arm_active
-      Use 'effect_arm_deck single' to allow only one deck at a time to be armed
-      Use 'effect_arm_deck master' to select master instead of a deck. 'sampler', 'mic', and 'aux' also supported</t>
+Use 'effect_arm_deck single' to allow only one deck at a time to be armed
+Use 'effect_arm_deck master' to select master instead of a deck. 'sampler', 'mic', and 'aux' also supported</t>
   </si>
   <si>
     <t>Move the effect parameter of the effect selected using effect_arm_select on the deck selected using effect_arm_deck
-      Use "effect_arm_slider 1 2" to move the second slider of the first slot</t>
+Use "effect_arm_slider 1 2" to move the second slider of the first slot</t>
   </si>
   <si>
     <t>Get the effect parameter label of the effect selected using effect_arm_select on the deck selected using effect_arm_deck.
-      Use 'effect_arm_slider_label 1 short' to get the short label</t>
+Use 'effect_arm_slider_label 1 short' to get the short label</t>
   </si>
   <si>
     <t>Get the effect parameter name of the effect selected using effect_arm_select on the deck selected using effect_arm_deck.
-      Use 'effect_arm_slider_name 1 short' to get the short label</t>
+Use 'effect_arm_slider_name 1 short' to get the short label</t>
   </si>
   <si>
     <t>Get the effect parameter text of the effect selected using effect_arm_select on the deck selected using effect_arm_deck.</t>
@@ -253,60 +337,60 @@
   </si>
   <si>
     <t>get information about a saved loop: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
-      "get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
-      "get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
+"get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
+"get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
   </si>
   <si>
     <t>get the level of a single spectrum band. 'get_spectrum_band 1'
-      Use 'deck master' in front to get spectrum of the master deck 'deck master get_spectrum_band 1'
-      By default there are 32 bands, to use a smaller number of bands, use 'get_spectrum_band 1 3' to get the first of 3 bands
-      The third parameter can be used to get a spectrum of stems 'get_spectrum_band 1 32 vocals'</t>
+Use 'deck master' in front to get spectrum of the master deck 'deck master get_spectrum_band 1'
+By default there are 32 bands, to use a smaller number of bands, use 'get_spectrum_band 1 3' to get the first of 3 bands
+The third parameter can be used to get a spectrum of stems 'get_spectrum_band 1 32 vocals'</t>
   </si>
   <si>
     <t>Get level of signal after master volume. If no deck is specified will get master level.
-      Use "get_vu_meter 'mic'" for microphone level or "get_vu_meter 'sampler'" for sampler level
-      Use "get_level 'vocal'" for vocal vu meter, other stem names also supported</t>
+Use "get_vu_meter 'mic'" for microphone level or "get_vu_meter 'sampler'" for sampler level
+Use "get_level 'vocal'" for vocal vu meter, other stem names also supported</t>
   </si>
   <si>
     <t>add or remove a hash tag from user1, user2 or comment of the currently loaded song: "loaded_song_hashtag 'user 1' '#high_energy'"</t>
   </si>
   <si>
     <t>Activate/deactivate named effect with a single key. Effect parameters can be specified as well.
-      'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
-      'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
-      'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
-      'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
-      'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
-      'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
-      'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
-      stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
+'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
+'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
+'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
+'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
+'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
+'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
+'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
+ stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
   </si>
   <si>
     <t>Set the pitch of the deck. Without parameters it can be assigned to sliders
-      Used with a number, it gives the position on the slider (and therefore account for pitch_range). ('pitch 0.25' set pitch at -10% if pitch range is 20%)
-      Used with a percent it gives an absolute position.  'pitch 112%' set pitch at +12%
-      Relative values are possible too. 'pitch +0.1%', 'pitch +0.1 bpm'
-      When used with 'bpm', the pitch is set to match the bpm. 'pitch 130 bpm' set pitch to match 130 bpm</t>
+Used with a number, it gives the position on the slider (and therefore account for pitch_range). ('pitch 0.25' set pitch at -10% if pitch range is 20%)
+Used with a percent it gives an absolute position.  'pitch 112%' set pitch at +12%
+Relative values are possible too. 'pitch +0.1%', 'pitch +0.1 bpm'
+When used with 'bpm', the pitch is set to match the bpm. 'pitch 130 bpm' set pitch to match 130 bpm</t>
   </si>
   <si>
     <t>'sampler_assign 1 "path to vdjsample"' adds the sample to sample slot 1. (For use in drag&amp;drop in pad page)</t>
   </si>
   <si>
     <t>get the color of the sample on this slot if it has one
-      The sample number takes the sampler_pad_page into account, so should be used in combination with sampler_pad</t>
+The sample number takes the sampler_pad_page into account, so should be used in combination with sampler_pad</t>
   </si>
   <si>
     <t>popup the sample menu.
-      can also be used with 'sampler_options "locked"' or 'sampler_options "stemswap"' to change the bank's settings.</t>
+can also be used with 'sampler_options "locked"' or 'sampler_options "stemswap"' to change the bank's settings.</t>
   </si>
   <si>
     <t>'sampler_pad_volume 1' sets the volume of the sample on the first pad
-      'sampler_pad_volume "siren"' sets the volume of the sample 'siren.vdjsample'.</t>
+'sampler_pad_volume "siren"' sets the volume of the sample 'siren.vdjsample'.</t>
   </si>
   <si>
     <t>Change the amount of a stem in the mix. Stem names are: "HiHat", "Vocal", "Instru", "Bass", "Kick", or you can use aggregate stems: "Melody" (Instru+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melody/Vocal), "MeloRhythm" (Melody/Rhythm).
-      To get kill on left side and isolate on right side of the slider, you can use "FullVocal", "FullMelo" and "FullRhythm"
-      To map a slider to always control the equalizer, regardless of EQ mode, you can use "stem FreqHi", "stem FreqMid", and "stem FreqLo"</t>
+To get kill on left side and isolate on right side of the slider, you can use "FullVocal", "FullMelo" and "FullRhythm"
+To map a slider to always control the equalizer, regardless of EQ mode, you can use "stem FreqHi", "stem FreqMid", and "stem FreqLo"</t>
   </si>
   <si>
     <t>get the default color of a specific stem</t>
@@ -784,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -814,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -822,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -830,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -838,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -846,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -854,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -862,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -870,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -878,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -886,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -894,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -902,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -910,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -918,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -926,7 +1010,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -934,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -942,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -950,7 +1034,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -958,7 +1042,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -966,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -974,7 +1058,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -982,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -990,7 +1074,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -998,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1006,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1014,7 +1098,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1022,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1030,7 +1114,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1038,7 +1122,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1046,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1054,7 +1138,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1062,7 +1146,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1070,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1078,7 +1162,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1086,7 +1170,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1094,7 +1178,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1102,7 +1186,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1110,7 +1194,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1118,7 +1202,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1126,7 +1210,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1134,7 +1218,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1142,7 +1226,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1150,7 +1234,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1158,7 +1242,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1166,7 +1250,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1174,7 +1258,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1182,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1190,7 +1274,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1198,7 +1282,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1206,7 +1290,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1214,7 +1298,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1222,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1230,7 +1314,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1238,7 +1322,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1246,7 +1330,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1254,7 +1338,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1262,7 +1346,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1270,7 +1354,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1278,7 +1362,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1286,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1302,6 +1386,146 @@
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
